--- a/JW/itemo.xlsx
+++ b/JW/itemo.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FD5DA9-3C13-4899-B52F-696243B9BC54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8652CA-12D1-4E6C-B93E-7F51B44612D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="1575" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="items" sheetId="2" r:id="rId2"/>
-    <sheet name="sp2" sheetId="3" r:id="rId3"/>
+    <sheet name="b_hall" sheetId="4" r:id="rId3"/>
+    <sheet name="sp3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>지도</t>
   </si>
@@ -100,6 +101,74 @@
   </si>
   <si>
     <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집중탐사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑오징어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안실, 창고, 관리실 등에서 사용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배고픔 20 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배고픔 회복량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,41 +516,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -495,10 +543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,7 +556,7 @@
     <col min="3" max="3" width="114.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -518,8 +566,11 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -530,7 +581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -541,7 +592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -549,7 +600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -560,7 +611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -571,7 +622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -582,7 +633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -593,7 +644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -604,7 +655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -615,7 +666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -626,7 +677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -635,41 +686,153 @@
       </c>
       <c r="C12" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C42CDE6-F6B8-4205-BA88-880136AF7066}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="H4:K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JW/itemo.xlsx
+++ b/JW/itemo.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EasyOne\Documents\Codeplay\JW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EasyOne\Documents\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="12420" activeTab="3"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="12420" activeTab="4"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="main" sheetId="1" r:id="rId4"/>
@@ -26,129 +26,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+  <x:si>
+    <x:t>상자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구실에서 얻은 일지이다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지도를 보여줍니다(상호작용 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>침대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서랍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만화책</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길을 밝혀줍니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가볍지만 무겁다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안실에서 사용 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명(안적어도됨)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배고픔 20 회복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자3</x:t>
+  </x:si>
   <x:si>
     <x:t>밥</x:t>
   </x:si>
   <x:si>
+    <x:t>바닥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>똥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빛</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식었다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손전등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안키</x:t>
+  </x:si>
+  <x:si>
     <x:t>지도</x:t>
   </x:si>
   <x:si>
-    <x:t>상자5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바닥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빵</x:t>
-  </x:si>
-  <x:si>
     <x:t>상자4</x:t>
   </x:si>
   <x:si>
+    <x:t>상자2</x:t>
+  </x:si>
+  <x:si>
     <x:t>책</x:t>
   </x:si>
   <x:si>
-    <x:t>상자1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>똥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식었다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빛</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물병</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손전등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안실에서 사용 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명(안적어도됨)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가볍지만 무겁다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배고픔 20 회복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길을 밝혀줍니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지도를 보여줍니다(상호작용 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이게 음식인가? 배고픔을 1 회복한다.</x:t>
+    <x:t>지구에서 유행하는 마블링 코믹스 시리즈 3권이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고유 값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매우 우람해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구일지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>집중탐사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500원이다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이템 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오징어 맛살</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창고열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>푸짐하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑오징어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배고픔 회복량</x:t>
   </x:si>
   <x:si>
     <x:t>보안실, 창고, 관리실 등에서 사용 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구실에서 얻은 일지이다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이템 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창고열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배고픔 회복량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑오징어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구일지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오징어 맛살</x:t>
-  </x:si>
-  <x:si>
-    <x:t>푸짐하다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매우 우람해</x:t>
-  </x:si>
-  <x:si>
-    <x:t>집중탐사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500원이다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고유 값</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -909,23 +924,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:B10"/>
+  <x:dimension ref="A1:A10"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B1" activeCellId="0" sqref="B1:B1"/>
+      <x:selection activeCell="C3" activeCellId="0" sqref="C3:C3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
-      <x:c r="A1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B1" s="1"/>
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" s="2"/>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -940,7 +952,7 @@
   <x:dimension ref="A1:D16"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C17" activeCellId="0" sqref="C17:C17"/>
+      <x:selection activeCell="A17" activeCellId="0" sqref="A17:A17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -948,48 +960,47 @@
     <x:col min="1" max="1" width="16.125" style="2" customWidth="1"/>
     <x:col min="2" max="2" width="7.625" style="2" customWidth="1"/>
     <x:col min="3" max="3" width="114.5" style="2" customWidth="1"/>
-    <x:col min="4" max="4" width="9.00390625" style="1" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B2" s="2">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B3" s="2">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B4" s="2">
         <x:v>10</x:v>
@@ -997,95 +1008,95 @@
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B5" s="2">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B6" s="2">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B7" s="2">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B8" s="2">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B9" s="2">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B10" s="2">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B11" s="2">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B12" s="2">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B13" s="2">
         <x:v>2</x:v>
@@ -1093,45 +1104,42 @@
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B14" s="2">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B15" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D15" s="2">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:4">
+    <x:row r="16" spans="1:3">
       <x:c r="A16" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B16" s="2">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D16" s="1">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1142,69 +1150,69 @@
   <x:dimension ref="A1:F7"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E5" activeCellId="0" sqref="E5:E5"/>
+      <x:selection activeCell="H1" activeCellId="0" sqref="H1:H1048576"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1212,38 +1220,35 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet4"/>
-  <x:dimension ref="A1:D2"/>
+  <x:dimension ref="A1:C2"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F2" activeCellId="0" sqref="F2:F2"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B2" activeCellId="0" sqref="B2:B2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>15</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1251,15 +1256,135 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet5"/>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:B26"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1">
+      <x:c r="A9" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1">
+      <x:c r="A10" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1">
+      <x:c r="A12" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1">
+      <x:c r="A13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1">
+      <x:c r="A14" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1">
+      <x:c r="A15" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:1">
+      <x:c r="A16" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:1">
+      <x:c r="A17" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1">
+      <x:c r="A18" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:1">
+      <x:c r="A19" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
+      <x:c r="A20" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B20" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:1">
+      <x:c r="A21" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:1">
+      <x:c r="A26" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>